--- a/Data/Outputs/Stock Trading History.xlsx
+++ b/Data/Outputs/Stock Trading History.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmper\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmper\PycharmProjects\predictStocks\Data\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED15931-8D4E-4D30-A932-0711B73763D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCEB146-1183-44EE-AA3A-800CAEEDAEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AFDD6FB-284F-4802-92C9-92E1A64BE857}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,22 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Symbol</t>
   </si>
@@ -54,25 +43,46 @@
     <t>CIDM</t>
   </si>
   <si>
-    <t>Equity</t>
+    <t>B.Date</t>
   </si>
   <si>
-    <t>BUY</t>
+    <t>B.Price</t>
   </si>
   <si>
-    <t>START</t>
+    <t># Shares</t>
   </si>
   <si>
-    <t>Cash</t>
+    <t>S.Date</t>
   </si>
   <si>
-    <t>Difference</t>
+    <t>B.Total</t>
   </si>
   <si>
-    <t>SELL</t>
+    <t>S.Price</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>S.Total</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>OCGN</t>
+  </si>
+  <si>
+    <t>MCEP</t>
+  </si>
+  <si>
+    <t>GNUS</t>
+  </si>
+  <si>
+    <t>BLIN</t>
+  </si>
+  <si>
+    <t>EMAN</t>
   </si>
 </sst>
 </file>
@@ -97,7 +107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +132,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -432,178 +463,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD072B48-12FF-4FA3-B930-8384C4F0D7E0}">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43832</v>
+      </c>
+      <c r="D2">
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="E2">
+        <f>D2*B2</f>
+        <v>70.022400000000005</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43833</v>
+      </c>
+      <c r="G2">
+        <v>0.82</v>
+      </c>
+      <c r="H2">
+        <f>G2*B2</f>
+        <v>78.72</v>
+      </c>
+      <c r="I2">
+        <f>H2-E2</f>
+        <v>8.6975999999999942</v>
+      </c>
+      <c r="J2">
+        <f>135.27+I2</f>
+        <v>143.9676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43833</v>
+      </c>
+      <c r="D3">
+        <v>0.49</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3*B3</f>
+        <v>59.78</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43836</v>
+      </c>
+      <c r="G3">
+        <v>0.5454</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">G3*B3</f>
+        <v>66.538799999999995</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">H3-E3</f>
+        <v>6.7587999999999937</v>
+      </c>
+      <c r="J3">
+        <f>J2+I3</f>
+        <v>150.72640000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43836</v>
+      </c>
+      <c r="D4">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E4">
+        <f>D4*B4</f>
+        <v>80.304000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43837</v>
+      </c>
+      <c r="G4">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>100.14099999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>19.836999999999989</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="3">J3+I4</f>
+        <v>170.5634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>IF(NOT(ISBLANK(D2)), D2 * E2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>135.27000000000001</v>
-      </c>
-      <c r="H2">
-        <f>IF(NOT(ISBLANK(F2)), G2 + F2, "")</f>
-        <v>135.27000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0.72940000000000005</v>
-      </c>
-      <c r="E3">
-        <v>96</v>
-      </c>
-      <c r="F3">
-        <f>IF(NOT(ISBLANK(D3)), D3 * E3, 0)</f>
-        <v>70.022400000000005</v>
-      </c>
-      <c r="G3">
-        <f>IF(F3 &lt;&gt; 0, G2-F3, 0)</f>
-        <v>65.247600000000006</v>
-      </c>
-      <c r="H3">
-        <f>G3+F3</f>
-        <v>135.27000000000001</v>
-      </c>
-      <c r="I3">
-        <f>H2-H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43833</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>-96</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F67" si="0">IF(NOT(ISBLANK(D4)), D4 * E4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>IF(F4 &lt;&gt; 0, G3-F4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H67" si="1">G4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I67" si="2">H3-H4</f>
-        <v>135.27000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B5">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43837</v>
+      </c>
+      <c r="D5">
+        <v>0.379</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>64.430000000000007</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43838</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="3">IF(F5 &lt;&gt; 0, G4-F5, 0)</f>
-        <v>0</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56.78</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.6500000000000057</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>162.9134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43838</v>
+      </c>
+      <c r="D6">
+        <v>1.61</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>101.43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43839</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97.02</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.4100000000000108</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>158.5034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43839</v>
+      </c>
+      <c r="D7">
+        <v>0.39</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>54.99</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43840</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -611,16 +714,16 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
+        <v>-54.99</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
@@ -631,14 +734,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
@@ -649,14 +752,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
@@ -667,14 +770,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11">
@@ -685,14 +788,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
@@ -703,14 +806,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13">
@@ -721,14 +824,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
@@ -739,14 +842,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15">
@@ -757,14 +860,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
@@ -775,14 +878,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17">
@@ -793,14 +896,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
@@ -811,14 +914,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19">
@@ -829,14 +932,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20">
@@ -847,14 +950,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21">
@@ -865,14 +968,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22">
@@ -883,14 +986,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
@@ -901,14 +1004,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
@@ -919,14 +1022,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25">
@@ -937,14 +1040,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26">
@@ -955,14 +1058,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27">
@@ -973,14 +1076,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28">
@@ -991,14 +1094,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29">
@@ -1009,14 +1112,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30">
@@ -1027,14 +1130,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31">
@@ -1045,14 +1148,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32">
@@ -1063,14 +1166,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33">
@@ -1081,14 +1184,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34">
@@ -1099,14 +1202,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35">
@@ -1117,14 +1220,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36">
@@ -1135,14 +1238,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37">
@@ -1153,14 +1256,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38">
@@ -1171,14 +1274,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H39">
@@ -1189,14 +1292,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H40">
@@ -1207,14 +1310,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41">
@@ -1225,14 +1328,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H42">
@@ -1243,14 +1346,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -1261,14 +1364,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44">
@@ -1279,14 +1382,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45">
@@ -1297,14 +1400,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46">
@@ -1315,14 +1418,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47">
@@ -1333,14 +1436,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="3"/>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H48">
@@ -1351,14 +1454,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="3"/>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49">
@@ -1369,14 +1472,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="3"/>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H50">
@@ -1387,14 +1490,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="3"/>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H51">
@@ -1405,14 +1508,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52">
@@ -1423,14 +1526,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="3"/>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53">
@@ -1441,14 +1544,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="3"/>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54">
@@ -1459,14 +1562,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="3"/>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55">
@@ -1477,14 +1580,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="3"/>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56">
@@ -1495,14 +1598,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="3"/>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57">
@@ -1513,14 +1616,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="3"/>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H58">
@@ -1531,14 +1634,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="3"/>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H59">
@@ -1549,14 +1652,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="3"/>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H60">
@@ -1567,14 +1670,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="3"/>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H61">
@@ -1585,14 +1688,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="3"/>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H62">
@@ -1603,14 +1706,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="3"/>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H63">
@@ -1621,14 +1724,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="3"/>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H64">
@@ -1639,14 +1742,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="3"/>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H65">
@@ -1657,14 +1760,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="3"/>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H66">
@@ -1675,50 +1778,50 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="3"/>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="4">D67*B67</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H67:H130" si="5">G67*B67</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <f t="shared" ref="F68:F131" si="4">IF(NOT(ISBLANK(D68)), D68 * E68, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I67:I130" si="6">H67-E67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="5">G68+F68</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="6">H67-H68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G69:G132" si="7">IF(F69 &lt;&gt; 0, G68-F69, 0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="7">J67+I68</f>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69">
@@ -1729,14 +1832,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="7"/>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70">
@@ -1747,14 +1850,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="7"/>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71">
@@ -1765,14 +1868,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="7"/>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72">
@@ -1783,14 +1886,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="7"/>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73">
@@ -1801,14 +1904,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="7"/>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74">
@@ -1819,14 +1922,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="7"/>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75">
@@ -1837,14 +1940,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="7"/>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76">
@@ -1855,14 +1958,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="7"/>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77">
@@ -1873,14 +1976,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="7"/>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78">
@@ -1891,14 +1994,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="7"/>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79">
@@ -1909,14 +2012,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="7"/>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80">
@@ -1927,14 +2030,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="7"/>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81">
@@ -1945,14 +2048,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="7"/>
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82">
@@ -1963,14 +2066,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="7"/>
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83">
@@ -1981,14 +2084,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="7"/>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84">
@@ -1999,14 +2102,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="7"/>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85">
@@ -2017,14 +2120,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="7"/>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86">
@@ -2035,14 +2138,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="7"/>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87">
@@ -2053,14 +2156,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="7"/>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88">
@@ -2071,14 +2174,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="7"/>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89">
@@ -2089,14 +2192,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="7"/>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90">
@@ -2107,14 +2210,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="7"/>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91">
@@ -2125,14 +2228,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="7"/>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92">
@@ -2143,14 +2246,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="7"/>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H93">
@@ -2161,14 +2264,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="7"/>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94">
@@ -2179,14 +2282,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="7"/>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95">
@@ -2197,14 +2300,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="7"/>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H96">
@@ -2215,14 +2318,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="7"/>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H97">
@@ -2233,14 +2336,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="7"/>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98">
@@ -2251,14 +2354,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="7"/>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H99">
@@ -2269,14 +2372,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="7"/>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100">
@@ -2287,14 +2390,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="7"/>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H101">
@@ -2305,14 +2408,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F102">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="7"/>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H102">
@@ -2323,14 +2426,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="7"/>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H103">
@@ -2341,14 +2444,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="7"/>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H104">
@@ -2359,14 +2462,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F105">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="7"/>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105">
@@ -2377,14 +2480,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F106">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="7"/>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106">
@@ -2395,14 +2498,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="7"/>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107">
@@ -2413,14 +2516,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F108">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="7"/>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108">
@@ -2431,14 +2534,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F109">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="7"/>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H109">
@@ -2449,14 +2552,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F110">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="7"/>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H110">
@@ -2467,14 +2570,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F111">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="7"/>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H111">
@@ -2485,14 +2588,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="7"/>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H112">
@@ -2503,14 +2606,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F113">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="7"/>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113">
@@ -2521,14 +2624,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="7"/>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114">
@@ -2539,14 +2642,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F115">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="7"/>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H115">
@@ -2557,14 +2660,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F116">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="7"/>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H116">
@@ -2575,14 +2678,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F117">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="7"/>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H117">
@@ -2593,14 +2696,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F118">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="7"/>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H118">
@@ -2611,14 +2714,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F119">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="7"/>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H119">
@@ -2629,14 +2732,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F120">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="7"/>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H120">
@@ -2647,14 +2750,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F121">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="7"/>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H121">
@@ -2665,14 +2768,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F122">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="7"/>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H122">
@@ -2683,14 +2786,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="7"/>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H123">
@@ -2701,14 +2804,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="7"/>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H124">
@@ -2719,14 +2822,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="7"/>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H125">
@@ -2737,14 +2840,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="7"/>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H126">
@@ -2755,14 +2858,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="7"/>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H127">
@@ -2773,14 +2876,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="7"/>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H128">
@@ -2791,14 +2894,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F129">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="7"/>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H129">
@@ -2809,14 +2912,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="7"/>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H130">
@@ -2827,50 +2930,50 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F131">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="7"/>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="8">D131*B131</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H131:H194" si="9">G131*B131</f>
         <v>0</v>
       </c>
       <c r="I131">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F132">
-        <f t="shared" ref="F132:F195" si="8">IF(NOT(ISBLANK(D132)), D132 * E132, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I131:I194" si="10">H131-E131</f>
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="7"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H195" si="9">G132+F132</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I195" si="10">H131-H132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <f t="shared" ref="G133:G196" si="11">IF(F133 &lt;&gt; 0, G132-F133, 0)</f>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J195" si="11">J131+I132</f>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H133">
@@ -2881,14 +2984,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F134">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="11"/>
+      <c r="J133">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H134">
@@ -2899,14 +3002,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F135">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="11"/>
+      <c r="J134">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H135">
@@ -2917,14 +3020,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F136">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="11"/>
+      <c r="J135">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H136">
@@ -2935,14 +3038,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="11"/>
+      <c r="J136">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H137">
@@ -2953,14 +3056,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F138">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="11"/>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H138">
@@ -2971,14 +3074,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F139">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="11"/>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H139">
@@ -2989,14 +3092,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F140">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="11"/>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H140">
@@ -3007,14 +3110,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F141">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="11"/>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H141">
@@ -3025,14 +3128,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F142">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="11"/>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H142">
@@ -3043,14 +3146,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F143">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="11"/>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H143">
@@ -3061,14 +3164,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F144">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="11"/>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H144">
@@ -3079,14 +3182,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F145">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="11"/>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H145">
@@ -3097,14 +3200,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F146">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="11"/>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H146">
@@ -3115,14 +3218,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F147">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="11"/>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H147">
@@ -3133,14 +3236,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F148">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="11"/>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H148">
@@ -3151,14 +3254,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F149">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="11"/>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H149">
@@ -3169,14 +3272,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F150">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="11"/>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H150">
@@ -3187,14 +3290,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F151">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="11"/>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H151">
@@ -3205,14 +3308,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F152">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="11"/>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H152">
@@ -3223,14 +3326,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F153">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="11"/>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H153">
@@ -3241,14 +3344,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F154">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="11"/>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H154">
@@ -3259,14 +3362,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F155">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="11"/>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H155">
@@ -3277,14 +3380,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F156">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="11"/>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H156">
@@ -3295,14 +3398,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F157">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="11"/>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H157">
@@ -3313,14 +3416,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F158">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="11"/>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H158">
@@ -3331,14 +3434,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F159">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="11"/>
+      <c r="J158">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H159">
@@ -3349,14 +3452,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F160">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="11"/>
+      <c r="J159">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H160">
@@ -3367,14 +3470,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F161">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="11"/>
+      <c r="J160">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H161">
@@ -3385,14 +3488,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F162">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="11"/>
+      <c r="J161">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H162">
@@ -3403,14 +3506,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F163">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="11"/>
+      <c r="J162">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H163">
@@ -3421,14 +3524,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F164">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="11"/>
+      <c r="J163">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H164">
@@ -3439,14 +3542,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F165">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="11"/>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H165">
@@ -3457,14 +3560,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F166">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="11"/>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H166">
@@ -3475,14 +3578,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F167">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="11"/>
+      <c r="J166">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H167">
@@ -3493,14 +3596,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F168">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="11"/>
+      <c r="J167">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H168">
@@ -3511,14 +3614,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F169">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="11"/>
+      <c r="J168">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H169">
@@ -3529,14 +3632,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F170">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="11"/>
+      <c r="J169">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H170">
@@ -3547,14 +3650,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F171">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="11"/>
+      <c r="J170">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H171">
@@ -3565,14 +3668,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F172">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="11"/>
+      <c r="J171">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H172">
@@ -3583,14 +3686,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F173">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="11"/>
+      <c r="J172">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H173">
@@ -3601,14 +3704,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F174">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="11"/>
+      <c r="J173">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H174">
@@ -3619,14 +3722,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F175">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="11"/>
+      <c r="J174">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H175">
@@ -3637,14 +3740,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F176">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="11"/>
+      <c r="J175">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H176">
@@ -3655,14 +3758,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F177">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="11"/>
+      <c r="J176">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H177">
@@ -3673,14 +3776,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F178">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="11"/>
+      <c r="J177">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H178">
@@ -3691,14 +3794,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F179">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <f t="shared" si="11"/>
+      <c r="J178">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H179">
@@ -3709,14 +3812,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F180">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <f t="shared" si="11"/>
+      <c r="J179">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H180">
@@ -3727,14 +3830,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F181">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="11"/>
+      <c r="J180">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H181">
@@ -3745,14 +3848,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F182">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="11"/>
+      <c r="J181">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H182">
@@ -3763,14 +3866,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F183">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="11"/>
+      <c r="J182">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H183">
@@ -3781,14 +3884,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F184">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="11"/>
+      <c r="J183">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H184">
@@ -3799,14 +3902,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F185">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="11"/>
+      <c r="J184">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H185">
@@ -3817,14 +3920,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F186">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <f t="shared" si="11"/>
+      <c r="J185">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H186">
@@ -3835,14 +3938,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F187">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="11"/>
+      <c r="J186">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H187">
@@ -3853,14 +3956,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F188">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="11"/>
+      <c r="J187">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H188">
@@ -3871,14 +3974,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="11"/>
+      <c r="J188">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H189">
@@ -3889,14 +3992,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <f t="shared" si="11"/>
+      <c r="J189">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H190">
@@ -3907,14 +4010,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <f t="shared" si="11"/>
+      <c r="J190">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H191">
@@ -3925,14 +4028,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F192">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <f t="shared" si="11"/>
+      <c r="J191">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H192">
@@ -3943,14 +4046,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F193">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="11"/>
+      <c r="J192">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H193">
@@ -3961,14 +4064,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F194">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="11"/>
+      <c r="J193">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H194">
@@ -3979,50 +4082,50 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F195">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <f t="shared" si="11"/>
+      <c r="J194">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="12">D195*B195</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H195:H258" si="13">G195*B195</f>
         <v>0</v>
       </c>
       <c r="I195">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F196">
-        <f t="shared" ref="F196:F259" si="12">IF(NOT(ISBLANK(D196)), D196 * E196, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I195:I258" si="14">H195-E195</f>
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="11"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" ref="H196:H259" si="13">G196+F196</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I196">
-        <f t="shared" ref="I196:I259" si="14">H195-H196</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F197">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <f t="shared" ref="G197:G260" si="15">IF(F197 &lt;&gt; 0, G196-F197, 0)</f>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <f t="shared" ref="J196:J259" si="15">J195+I196</f>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H197">
@@ -4033,14 +4136,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F198">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="15"/>
+      <c r="J197">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H198">
@@ -4051,14 +4154,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F199">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="15"/>
+      <c r="J198">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H199">
@@ -4069,14 +4172,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F200">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="15"/>
+      <c r="J199">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H200">
@@ -4087,14 +4190,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F201">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="15"/>
+      <c r="J200">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H201">
@@ -4105,14 +4208,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F202">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="15"/>
+      <c r="J201">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H202">
@@ -4123,14 +4226,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F203">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="15"/>
+      <c r="J202">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H203">
@@ -4141,14 +4244,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F204">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="15"/>
+      <c r="J203">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H204">
@@ -4159,14 +4262,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F205">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="15"/>
+      <c r="J204">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H205">
@@ -4177,14 +4280,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="15"/>
+      <c r="J205">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H206">
@@ -4195,14 +4298,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F207">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="15"/>
+      <c r="J206">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H207">
@@ -4213,14 +4316,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F208">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="15"/>
+      <c r="J207">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H208">
@@ -4231,14 +4334,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F209">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <f t="shared" si="15"/>
+      <c r="J208">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H209">
@@ -4249,14 +4352,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F210">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <f t="shared" si="15"/>
+      <c r="J209">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H210">
@@ -4267,14 +4370,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F211">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G211">
-        <f t="shared" si="15"/>
+      <c r="J210">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H211">
@@ -4285,14 +4388,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F212">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <f t="shared" si="15"/>
+      <c r="J211">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H212">
@@ -4303,14 +4406,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F213">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G213">
-        <f t="shared" si="15"/>
+      <c r="J212">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H213">
@@ -4321,14 +4424,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F214">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G214">
-        <f t="shared" si="15"/>
+      <c r="J213">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H214">
@@ -4339,14 +4442,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F215">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G215">
-        <f t="shared" si="15"/>
+      <c r="J214">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H215">
@@ -4357,14 +4460,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F216">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G216">
-        <f t="shared" si="15"/>
+      <c r="J215">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H216">
@@ -4375,14 +4478,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F217">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <f t="shared" si="15"/>
+      <c r="J216">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H217">
@@ -4393,14 +4496,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F218">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <f t="shared" si="15"/>
+      <c r="J217">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H218">
@@ -4411,14 +4514,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F219">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="15"/>
+      <c r="J218">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H219">
@@ -4429,14 +4532,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F220">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G220">
-        <f t="shared" si="15"/>
+      <c r="J219">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H220">
@@ -4447,14 +4550,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F221">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="15"/>
+      <c r="J220">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H221">
@@ -4465,14 +4568,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F222">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="15"/>
+      <c r="J221">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H222">
@@ -4483,14 +4586,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F223">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="15"/>
+      <c r="J222">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H223">
@@ -4501,14 +4604,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F224">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="15"/>
+      <c r="J223">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H224">
@@ -4519,14 +4622,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F225">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="15"/>
+      <c r="J224">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H225">
@@ -4537,14 +4640,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F226">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="15"/>
+      <c r="J225">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H226">
@@ -4555,14 +4658,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F227">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="15"/>
+      <c r="J226">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H227">
@@ -4573,14 +4676,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F228">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="15"/>
+      <c r="J227">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H228">
@@ -4591,14 +4694,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F229">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G229">
-        <f t="shared" si="15"/>
+      <c r="J228">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H229">
@@ -4609,14 +4712,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F230">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G230">
-        <f t="shared" si="15"/>
+      <c r="J229">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H230">
@@ -4627,14 +4730,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F231">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G231">
-        <f t="shared" si="15"/>
+      <c r="J230">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H231">
@@ -4645,14 +4748,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F232">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <f t="shared" si="15"/>
+      <c r="J231">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H232">
@@ -4663,14 +4766,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F233">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G233">
-        <f t="shared" si="15"/>
+      <c r="J232">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H233">
@@ -4681,14 +4784,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F234">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <f t="shared" si="15"/>
+      <c r="J233">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H234">
@@ -4699,14 +4802,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F235">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <f t="shared" si="15"/>
+      <c r="J234">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H235">
@@ -4717,14 +4820,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F236">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <f t="shared" si="15"/>
+      <c r="J235">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H236">
@@ -4735,14 +4838,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F237">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <f t="shared" si="15"/>
+      <c r="J236">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H237">
@@ -4753,14 +4856,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F238">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G238">
-        <f t="shared" si="15"/>
+      <c r="J237">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H238">
@@ -4771,14 +4874,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F239">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G239">
-        <f t="shared" si="15"/>
+      <c r="J238">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H239">
@@ -4789,14 +4892,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F240">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <f t="shared" si="15"/>
+      <c r="J239">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H240">
@@ -4807,14 +4910,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F241">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <f t="shared" si="15"/>
+      <c r="J240">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H241">
@@ -4825,14 +4928,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F242">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G242">
-        <f t="shared" si="15"/>
+      <c r="J241">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H242">
@@ -4843,14 +4946,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F243">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G243">
-        <f t="shared" si="15"/>
+      <c r="J242">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H243">
@@ -4861,14 +4964,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F244">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <f t="shared" si="15"/>
+      <c r="J243">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H244">
@@ -4879,14 +4982,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F245">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G245">
-        <f t="shared" si="15"/>
+      <c r="J244">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H245">
@@ -4897,14 +5000,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F246">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G246">
-        <f t="shared" si="15"/>
+      <c r="J245">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H246">
@@ -4915,14 +5018,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F247">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G247">
-        <f t="shared" si="15"/>
+      <c r="J246">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H247">
@@ -4933,14 +5036,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F248">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G248">
-        <f t="shared" si="15"/>
+      <c r="J247">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H248">
@@ -4951,14 +5054,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F249">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G249">
-        <f t="shared" si="15"/>
+      <c r="J248">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H249">
@@ -4969,14 +5072,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F250">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G250">
-        <f t="shared" si="15"/>
+      <c r="J249">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H250">
@@ -4987,14 +5090,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F251">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G251">
-        <f t="shared" si="15"/>
+      <c r="J250">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H251">
@@ -5005,14 +5108,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F252">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G252">
-        <f t="shared" si="15"/>
+      <c r="J251">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H252">
@@ -5023,14 +5126,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F253">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G253">
-        <f t="shared" si="15"/>
+      <c r="J252">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H253">
@@ -5041,14 +5144,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F254">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G254">
-        <f t="shared" si="15"/>
+      <c r="J253">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H254">
@@ -5059,14 +5162,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F255">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G255">
-        <f t="shared" si="15"/>
+      <c r="J254">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H255">
@@ -5077,14 +5180,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F256">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G256">
-        <f t="shared" si="15"/>
+      <c r="J255">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H256">
@@ -5095,14 +5198,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F257">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G257">
-        <f t="shared" si="15"/>
+      <c r="J256">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H257">
@@ -5113,14 +5216,14 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F258">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G258">
-        <f t="shared" si="15"/>
+      <c r="J257">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H258">
@@ -5131,50 +5234,50 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F259">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G259">
-        <f t="shared" si="15"/>
+      <c r="J258">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <f t="shared" ref="E259:E300" si="16">D259*B259</f>
         <v>0</v>
       </c>
       <c r="H259">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H259:H300" si="17">G259*B259</f>
         <v>0</v>
       </c>
       <c r="I259">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F260">
-        <f t="shared" ref="F260:F323" si="16">IF(NOT(ISBLANK(D260)), D260 * E260, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G260">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I259:I300" si="18">H259-E259</f>
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="15"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H260">
-        <f t="shared" ref="H260:H300" si="17">G260+F260</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I260">
-        <f t="shared" ref="I260:I300" si="18">H259-H260</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F261">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <f t="shared" ref="J260:J300" si="19">J259+I260</f>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E261">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G261">
-        <f t="shared" ref="G261:G324" si="19">IF(F261 &lt;&gt; 0, G260-F261, 0)</f>
         <v>0</v>
       </c>
       <c r="H261">
@@ -5185,14 +5288,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F262">
+      <c r="J261">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E262">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G262">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H262">
@@ -5203,14 +5306,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F263">
+      <c r="J262">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E263">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G263">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H263">
@@ -5221,14 +5324,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F264">
+      <c r="J263">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E264">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G264">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H264">
@@ -5239,14 +5342,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F265">
+      <c r="J264">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E265">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G265">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H265">
@@ -5257,14 +5360,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F266">
+      <c r="J265">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E266">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G266">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H266">
@@ -5275,14 +5378,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F267">
+      <c r="J266">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E267">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G267">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H267">
@@ -5293,14 +5396,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F268">
+      <c r="J267">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E268">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H268">
@@ -5311,14 +5414,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F269">
+      <c r="J268">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E269">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G269">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H269">
@@ -5329,14 +5432,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F270">
+      <c r="J269">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E270">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G270">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H270">
@@ -5347,14 +5450,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F271">
+      <c r="J270">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E271">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G271">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H271">
@@ -5365,14 +5468,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F272">
+      <c r="J271">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E272">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G272">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H272">
@@ -5383,14 +5486,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F273">
+      <c r="J272">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E273">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G273">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H273">
@@ -5401,14 +5504,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F274">
+      <c r="J273">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E274">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G274">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H274">
@@ -5419,14 +5522,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F275">
+      <c r="J274">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E275">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H275">
@@ -5437,14 +5540,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F276">
+      <c r="J275">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E276">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H276">
@@ -5455,14 +5558,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F277">
+      <c r="J276">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E277">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G277">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H277">
@@ -5473,14 +5576,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F278">
+      <c r="J277">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E278">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G278">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H278">
@@ -5491,14 +5594,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F279">
+      <c r="J278">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E279">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H279">
@@ -5509,14 +5612,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F280">
+      <c r="J279">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E280">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H280">
@@ -5527,14 +5630,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F281">
+      <c r="J280">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E281">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H281">
@@ -5545,14 +5648,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F282">
+      <c r="J281">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E282">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H282">
@@ -5563,14 +5666,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F283">
+      <c r="J282">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E283">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H283">
@@ -5581,14 +5684,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F284">
+      <c r="J283">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E284">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G284">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H284">
@@ -5599,14 +5702,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F285">
+      <c r="J284">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E285">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H285">
@@ -5617,14 +5720,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F286">
+      <c r="J285">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E286">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H286">
@@ -5635,14 +5738,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F287">
+      <c r="J286">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E287">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G287">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H287">
@@ -5653,14 +5756,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F288">
+      <c r="J287">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E288">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G288">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H288">
@@ -5671,14 +5774,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F289">
+      <c r="J288">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E289">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H289">
@@ -5689,14 +5792,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F290">
+      <c r="J289">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E290">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H290">
@@ -5707,14 +5810,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F291">
+      <c r="J290">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E291">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G291">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H291">
@@ -5725,14 +5828,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F292">
+      <c r="J291">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E292">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G292">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H292">
@@ -5743,14 +5846,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F293">
+      <c r="J292">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E293">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G293">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H293">
@@ -5761,14 +5864,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F294">
+      <c r="J293">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E294">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G294">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H294">
@@ -5779,14 +5882,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F295">
+      <c r="J294">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E295">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H295">
@@ -5797,14 +5900,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F296">
+      <c r="J295">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E296">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H296">
@@ -5815,14 +5918,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F297">
+      <c r="J296">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E297">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H297">
@@ -5833,14 +5936,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F298">
+      <c r="J297">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E298">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H298">
@@ -5851,14 +5954,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F299">
+      <c r="J298">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E299">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H299">
@@ -5869,14 +5972,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F300">
+      <c r="J299">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E300">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G300">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H300">
@@ -5887,13 +5990,46 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="J300">
+        <f t="shared" si="19"/>
+        <v>103.51339999999999</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{38204800-1773-4A0C-A9CD-44E24185730F}"/>
+  <conditionalFormatting sqref="I2:I300">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="&quot;&lt;0&quot;"/>
+        <cfvo type="formula" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{5680B4C4-6174-4B39-981B-5CD74E216E22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B301:B1048576" xr:uid="{5680B4C4-6174-4B39-981B-5CD74E216E22}">
       <formula1>"BUY, SELL, START"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0D3376-E48C-4F6B-833C-12ACFAC6D262}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>